--- a/design/Z_装备.xlsx
+++ b/design/Z_装备.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
+    <sheet name="辅助装备" sheetId="2" r:id="rId2"/>
+    <sheet name="羁绊装备" sheetId="7" r:id="rId3"/>
+    <sheet name="奥恩神器" sheetId="5" r:id="rId4"/>
+    <sheet name="其他装备" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +22,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、拆开装备
+2、卸下装备
+3、重铸装备
+4、buff
+5、复制英雄
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="251">
   <si>
     <t>output</t>
   </si>
@@ -75,6 +120,945 @@
   </si>
   <si>
     <t xml:space="preserve">[ ] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(strring)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风大剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反曲之弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用大棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神之泪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁子甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人腰带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人杀手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海克斯科技刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朔极之矛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮血剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特拉克的挑战护手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾射火炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼索的狂暴之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔缇克电刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦的坚决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安娜的飓风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳什之牙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的轻语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭世者的死亡之帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天使之杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冕卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子火花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫雷洛秘典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠光护手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝霸符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应性头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>救赎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义之手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棘刺背心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像鬼石板甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日炎斗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜收割者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨龙之爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄暮法袍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20魔法抗性，+150生命值。 2格内的敌人们会被施加30%护甲削减。在战斗的最初10秒获得15护甲和魔抗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+65魔法抗性。 每过2秒，回复5%最大生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击力，+15法术强度，+25护甲，+20暴击几率。 造成12%额外伤害，这个加成会在低于60%生命值时提升至25%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20护甲，+250生命值。 每过2秒，对2格内的一名敌人施加持续10秒的1%灼烧效果和33%重伤效果。 [唯一 - 每位英雄仅可装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25护甲，+25魔法抗性。 每有一个敌人正在以携带者为目标，携带者就会获得15护甲和15魔法抗性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+75护甲。 使所受暴击的60%额外伤害变得无效。在被一次攻击击中时，对附近所有敌人造成75/100/150魔法伤害(每2秒一次)。 [直接伤害类装备]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法力值，+20%暴击几率。 提供2个效果：(1)+15% 攻击力和+15法术强度。(2) 15% 全能吸血。 每一回合，随机使其中一个效果翻倍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法力值，+150生命值。 每过5秒治疗1格内的友军们15%的已损失生命值。此外，这些友军们所受的群体目标伤害还会降低12%，持续5秒（伤害减免不会叠加）。​​光环类装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法术强度，+15法力值，+20魔法抗性。 战斗开始时：基于初始位置获得不同的加成。 前两排：35护甲和魔抗。 后两排：20法术强度。每3秒获得10法力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+30法力值。 提供10额外初始法力值和10额外法术强度。施放技能的法力值消耗降低10。 如果携带者在施放技能后的3秒内至少参与了一次击杀，就会获得10法力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10法术强度，+20%暴击几率。 提供20%额外法术强度和15%暴击几率。 来自技能的伤害可以造成暴击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25法术强度，+150生命值。 在携带者用技能造成伤害时，还会对敌人们施加持续10秒的1%灼烧效果和33%重伤效果。 [唯一 - 每位英雄仅可装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法术强度，+25魔法抗性。 对2格内的敌人们施加30% 魔抗击碎。在敌人施放一次技能时，该敌人还会被震击并受到相当于该敌人160%最大法力值的魔法伤害。 [直接伤害类装备]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20法术强度，+20护甲。 战斗开始时：获得持续8秒的相当于30%最大生命值的护盾值。 在护盾到期时，获得40法术强度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10法术强度，+15法力值。 提供10额外法术强度。 战斗环节开始时：携带者每5秒获得25法术强度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20法术强度。 提供50额外法术强度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25%攻击速度，+20%暴击几率。 提供15%额外攻击力。造成的任何物理伤害会对目标施加持续3秒的30% 护甲击碎。这个效果不会叠加。 唯一 - 每位英雄仅可装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度，+30%法术强度，+150生命值。 在施放一个技能后，获得持续5秒的40%攻击速度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度，+20魔法抗性。 提供20%额外攻击力。携带者的攻击会对附近的另一名敌人发射一个弹体，造成携带者50%攻击力的物理伤害。​​​​[直接伤害类装备]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度，+20护甲。 在攻击或承受伤害时提供2% 攻击力和2法术强度，至多可叠加25次。 在叠满层数后，提供20护甲和20魔法抗性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击速度，+20法术强度。 提供15额外法术强度。每第3次攻击会释放一道链状闪电，可弹射至4名敌人，造成30魔法伤害和持续5秒的30% 魔抗击碎。​​[直接伤害类装备]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+18%攻击速度，+10法术强度。 每次攻击提供4%额外攻击速度。这个效果可叠加！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+35%攻击速度。 造成12%额外伤害和1额外攻击距离。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击力，+20%暴击几率。 提供20%额外攻击力和15额外暴击几率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击力，+200生命值。 每场战斗一次：在60%生命值时，获得25%最大生命值和30%攻击力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%攻击力，+20魔法抗性。 提供20%全能吸血。 每场战斗一次：在40%生命值时，提供一个护盾，护盾值相当于携带者25%的最大生命值，至多持续5秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，+15法力值。 提供25额外法术强度。每第3次攻击回复5额外法力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，+10法术强度。 提供22%全能吸血，这个效果还会治疗生命值百分比最低的那名友军。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，+10%攻击速度。 提供20%额外攻击力和20额外法术强度。攻击和技能对最大生命值超过了1600的敌人们造成25%额外伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%攻击力。提供46%额外攻击力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%法强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法力值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负极斗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20魔抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%暴击几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+30魔法抗性，+20%暴击几率。 携带者获得30%额外攻击速度。在战斗环节开始后的最初18秒里免疫控制效果。[唯一 - 每位英雄仅可装备一件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂徒铠甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+300生命值。 提供500额外生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窃贼手套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一回合：装备2件随机装备。 需要用掉3个装备格。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，+20%暴击几率。 提供30%额外攻击速度和10额外法术强度。在伤害一名带有护盾的敌人后，技能和攻击会造成25%额外伤害，持续3秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜之锋刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，+20护甲。 每场战斗一次：在60% 生命值时，短暂变为不可被选取状态并摆脱负面效果。然后，提供15% 攻击速度。 唯一 - 每位英雄仅能装备1件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+45法力值，+20护甲。 每场战斗仅触发1次：在40%生命值时，获得相当于25%最大生命值的护盾值，至多持续5秒，并且获得20护甲和20魔法抗性，持续到战斗结束为止。​​</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾使的誓约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_from(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明版本buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通装备buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团圣盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余烬之冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殉道美德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量圣杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：提供18法术强度和10法力值给携带者和同一排2格内的友军们。​​</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁烈阳之匣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用大宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 如果携带者在战斗开始15秒后仍然存活，那么每2个仍存活的友军会提供1金币，并且每个仍存活的友军造成35额外伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石切割者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰顿之兆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止法衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：射出一道光束，对敌人们施加30%破法。 你的弈子们获得80生命值。 [唯一 - 每位英雄仅限1件] 破法：最大法力值提升，持续到施放技能为止。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：提供30护甲和30魔抗给携带者和邻格的友军们。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 伤害造成持续15秒的30%魔抗击碎和30%护甲击碎。 [唯一 - 每位英雄仅限1件] 魔抗击碎：减少魔抗值 护甲击碎：降低护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：携带者和同一排2格内的友军们获得持续20秒的200/250/300护盾值、25护甲与25魔抗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 每5秒治疗所有友军7%最大生命值。当携带者阵亡时，治疗效果提升至14%最大生命值并存留10秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 在战斗开始时，携带者和同一排1格内的所有友军获得【余烬之冠】。带有【余烬之冠】的弈子们会强化其攻击来灼烧目标8%最大生命值的真实伤害并施加33%重伤 [唯一 - 每位英雄仅能装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：为携带者和同一排1格内的友军们提供持续18秒的控制免疫效果。 [唯一 - 每位英雄仅能装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：提供30%攻击速度和15护甲与魔抗给携带者及其身后的友军，持续10秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基克的先驱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值。 战斗开始时：提供25%攻击速度给携带者和同一排2格内的友军们。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+250生命值 战斗开始时：携带者在对面棋盘召唤一道飓风，来将距离飓风最近的敌人移出战斗5秒。 你的弈子们获得8%攻击速度。 [无视控制免疫效果。] [唯一 - 每位英雄仅能装备1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兹若特传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度，+150生命值 战斗环节开始时：嘲讽。 在阵亡后，一个【虚空生物】会爬起来嘲讽附近的敌人。从召唤单位上爬起来的【虚空生物】会被大幅削弱。 嘲讽：能够攻击且已将嘲讽者纳入攻击距离的敌人都必须攻击嘲讽者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_type(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金铲铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>它必须做点什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetter(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恕瑞玛纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10法术强度，持有者获得恕瑞玛羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度。携带者获得【挑战者】羁绊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾欧尼亚纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，持有者获得艾欧尼亚羁绊。 艾欧尼亚奖励：33% 攻击速度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20%暴击率，持有者获得征服者羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征服者纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15法力值，持有者获得巫师羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺克萨斯纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得诺克萨斯羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20护甲，持有者获得主宰羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主宰纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比尔吉沃特纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20魔法抗性，持有者获得比尔吉沃特羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3001, 6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒卫士纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得堡垒卫士羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗家纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，携带者获得【格斗家】羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德玛西亚纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得德玛西亚羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗雷尔卓德纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得弗雷尔卓德羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪手纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得枪手羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕者纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得神谕者羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮尔特沃夫纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得皮尔特沃夫羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行者纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得潜行者羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得以绪塔尔羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以绪塔尔纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司令纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得司令羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得虚空羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖安纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值，持有者获得祖安羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨神峰纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+150生命值 携带者获得【巨神峰】羁绊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后是否消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappear(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖掉英雄后是否恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_return(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮寇之助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备重铸器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备拆卸器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命盔甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25魔法抗性，+500生命值。 每秒回复自身2.5%的最大生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之蔑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击力，+25%攻击速度，+30护甲。 提供25%全能吸血。携带者受到的50%伤害会转而在4秒里作为非致命伤害来持续扣除。 [唯一 - 每位英雄仅限1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔蕴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击力，+15%攻击速度。+30法力值。 每场战斗一次：在施放一个技能后，在5秒里持续回复共120法力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25攻击力，+25%攻击速度，+25%法术强度，+25初始法力值，+25护甲，+25魔抗，+250生命值+25法力值和+25%暴击几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒凛冬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20护甲，+200生命值。 对携带者造成伤害的敌人们会被施加持续1.5秒的20%冰冷效果。在被施加了来自这件装备的7层冰冷后，攻击者会转而被晕眩，但每15秒仅触发一次。 [唯一 - 每位英雄仅限1件] 冰冷:使攻击速度减缓。 晕眩：不能移动、攻击或施放技能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20攻击力，+30%暴击几率。携带者的攻击和技能会处决低于12%最大生命值的目标。处决有40%几率掉落1金币。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币收集者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中娅悖论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+45法术强度，+30护甲，+30魔抗。每场战斗仅触发一次：在40%生命值时，携带者进入持续3秒的免疫伤害和无法被选取状态。 唯一 - 每位英雄仅限1件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎舰者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+30%攻击速度，+35护甲，+35魔法抗性。战斗开始时：如果邻格内没有己方弈子，获得额外的600生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡术师之镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10%攻击速度，+10护甲，+10魔法抗性，+15%暴击率。召唤一个拥有70%最大生命值并且最大法力值+30%的复制体。你无法给复制体装上装备 复制体会受益于已激活的羁绊 [唯一-每位英雄仅限1件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手的专注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+15%攻击力，+15%攻击速度，+15法术强度，提供+1距离。持有者的攻击和能力对他们与目标之间的每个六角形造成的伤害提高10%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火之拥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50法术强度，+30法力值。战斗开始：持有者向他们的目标发射能量冲击波，标记他们并造成他们最大生命值20%的魔法伤害。 在接下来的10秒内，多造成25%伤害。对被震击目标造成的伤害提升至35%。 [唯一-每位英雄仅限一件]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠手套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1件【铁匠手套】，它每回合都会提供2件临时的奥恩宝物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1x你的金币存款的法术强度(在30金币时达到最大值)，并在击杀一名敌人后有40%几率掉落2 金币。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>御金师之杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在承受伤害时提供1护甲、1魔抗和6生命值，这个效果至多叠加40次。 在满层时，提供2金币。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大亨之铠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微光注射器</t>
+  </si>
+  <si>
+    <t>改件：获得20%攻击速度，首次降到1生命值时，使攻击速度提升100%，并回复35%最大生命值。过载：转而使攻击速度提升400%，并回复100%最大生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改件：普攻有60%几率触发1次额外普攻。过载：普攻造成相当于你50%的额外真实伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应性植入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改件：在高于50%生命值时，获得25%攻击力和25法术强度。在低于这个百分比时，获得25%全能吸血。过载：总会获得这两个效果，并且它们的强度提升60%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定炼金罐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改件：获得33%最大生命值并在阵亡时爆炸，对附近的敌人造成相当于自身30%最大生命值的魔法伤害。过载：爆炸范围变大，且伤害提升至自身45%最大生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海克斯科技外骨骼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改件：获得30护甲和魔抗。每过5秒，净化所有负面效果，并回复10%最大生命值。过载：携带者在每次治疗时，对所有附近的敌人造成相当于150%治疗效果的魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈性生化器皿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改件：在你造成技能伤害时释放一道烈性毒云，使目标1格半径内的敌人们在4秒里多受20%伤害。过载：毒云时长使10秒并且毒云每秒造成5%最大生命值的魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次级妮寇之助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当武器的携带者阵亡时，武器会传递到最近的一名友方英雄身上，并且为其提供武器的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗裔武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_buffs(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_params(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金铲铲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +1066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +1086,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +1179,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,12 +1493,12 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="4" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -503,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -514,7 +1541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,19 +1550,28 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -543,13 +1579,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -557,29 +1602,3608 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>29</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>30</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>38</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>39</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>40</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>42</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>43</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>44</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>45</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C79" s="10"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>1007</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>1008</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>1009</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>1010</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>1011</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>1013</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>2003</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>2004</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="7">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>2007</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="7">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>22</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>3001</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3002</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>3003</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>3004</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>3005</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>3006</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>3007</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>3008</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>3009</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>3010</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>3011</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>3012</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>3013</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>3014</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>4001</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>4002</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>4003</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>4004</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>4005</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>4006</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>4007</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>4008</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>4009</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>4010</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4011</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>